--- a/Assets/PluginPackages/BakingSheetImpl/RawData/Tower.xlsx
+++ b/Assets/PluginPackages/BakingSheetImpl/RawData/Tower.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefend/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhdv/Unity/SimpleTowerDefense/Assets/PluginPackages/BakingSheetImpl/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F69F62-D695-ED4C-A4F7-618640409B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1D75A-8A88-E34C-9C59-8FD4C2E4EFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33640" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Towers" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -528,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T3" s="2">
         <v>1</v>
@@ -767,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="S4" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T4" s="2">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -829,10 +840,11 @@
         <v>30</v>
       </c>
       <c r="S5" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T5" s="2">
-        <v>0.5</v>
+        <f>0.85-0.15</f>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
